--- a/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x1..xn]}}.DownUp.Test-0.xlsx
+++ b/typecheck/benchmark/incremental_16/Abs{x,Tree{Add,[x1..xn]}}.DownUp.Test-0.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E1" sqref="E1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -573,8 +573,8 @@
         <v>219.550777777777</v>
       </c>
       <c r="E2">
-        <f>C2/D2</f>
-        <v>1.3664264961231493E-2</v>
+        <f>C$9/D2</f>
+        <v>298.49586807810192</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -607,8 +607,8 @@
         <v>217.227222222222</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>6.9052119004933465E-2</v>
+        <f t="shared" ref="E3:E9" si="1">C$9/D3</f>
+        <v>301.68870793255428</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.27554116564361303</v>
+        <v>286.62841730879654</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>1.0681363975273248</v>
+        <v>274.51105416452248</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -710,7 +710,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>4.4632225877747178</v>
+        <v>285.92110683266486</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>18.241532140213575</v>
+        <v>291.93133304246561</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>73.458580810629357</v>
+        <v>293.84777473140423</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -833,7 +833,7 @@
     <row r="11" spans="1:10">
       <c r="E11">
         <f>SUM(E2:E8)/COUNTA(E2:E8)</f>
-        <v>13.941389926536393</v>
+        <v>290.43203744150145</v>
       </c>
     </row>
   </sheetData>
